--- a/positive_yearly_earnings_per_share_2014_df.xlsx
+++ b/positive_yearly_earnings_per_share_2014_df.xlsx
@@ -1228,12 +1228,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1263,11 +1269,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1580,7 +1588,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>4.02</v>
       </c>
     </row>
@@ -1588,7 +1596,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>6.49</v>
       </c>
     </row>
@@ -1596,7 +1604,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.11</v>
       </c>
     </row>
@@ -1604,7 +1612,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.22</v>
       </c>
     </row>
@@ -1612,7 +1620,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -1620,7 +1628,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.54</v>
       </c>
     </row>
@@ -1628,7 +1636,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.35</v>
       </c>
     </row>
@@ -1636,7 +1644,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>3.44</v>
       </c>
     </row>
@@ -1644,7 +1652,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8.720000000000001</v>
       </c>
     </row>
@@ -1652,7 +1660,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.02</v>
       </c>
     </row>
@@ -1660,7 +1668,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2.42</v>
       </c>
     </row>
@@ -1668,7 +1676,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3.34</v>
       </c>
     </row>
@@ -1676,7 +1684,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>6.54</v>
       </c>
     </row>
@@ -1684,7 +1692,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>5.27</v>
       </c>
     </row>
@@ -1692,7 +1700,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2.06</v>
       </c>
     </row>
@@ -1700,7 +1708,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>6.52</v>
       </c>
     </row>
@@ -1708,7 +1716,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1.98</v>
       </c>
     </row>
@@ -1716,7 +1724,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1.87</v>
       </c>
     </row>
@@ -1724,7 +1732,7 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1.69</v>
       </c>
     </row>
@@ -1732,7 +1740,7 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>4.47</v>
       </c>
     </row>
@@ -1740,7 +1748,7 @@
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>6.37</v>
       </c>
     </row>
@@ -1748,7 +1756,7 @@
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1.82</v>
       </c>
     </row>
@@ -1756,7 +1764,7 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>3.32</v>
       </c>
     </row>
@@ -1764,7 +1772,7 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.88</v>
       </c>
     </row>
@@ -1772,7 +1780,7 @@
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>2.39</v>
       </c>
     </row>
@@ -1780,7 +1788,7 @@
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>8.220000000000001</v>
       </c>
     </row>
@@ -1788,7 +1796,7 @@
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>6.8</v>
       </c>
     </row>
@@ -1796,7 +1804,7 @@
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>8.449999999999999</v>
       </c>
     </row>
@@ -1804,7 +1812,7 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>2.02</v>
       </c>
     </row>
@@ -1812,7 +1820,7 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>3.57</v>
       </c>
     </row>
@@ -1820,7 +1828,7 @@
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>9.31</v>
       </c>
     </row>
@@ -1828,7 +1836,7 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>4.73</v>
       </c>
     </row>
@@ -1836,7 +1844,7 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>4.66</v>
       </c>
     </row>
@@ -1844,7 +1852,7 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>2.26</v>
       </c>
     </row>
@@ -1852,7 +1860,7 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>0.21</v>
       </c>
     </row>
@@ -1860,7 +1868,7 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>1.14</v>
       </c>
     </row>
@@ -1868,7 +1876,7 @@
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>5.22</v>
       </c>
     </row>
@@ -1876,7 +1884,7 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2.36</v>
       </c>
     </row>
@@ -1884,7 +1892,7 @@
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>4.07</v>
       </c>
     </row>
@@ -1892,7 +1900,7 @@
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>32.16</v>
       </c>
     </row>
@@ -1900,7 +1908,7 @@
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>7.47</v>
       </c>
     </row>
@@ -1908,7 +1916,7 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0.36</v>
       </c>
     </row>
@@ -1916,7 +1924,7 @@
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>4.61</v>
       </c>
     </row>
@@ -1924,7 +1932,7 @@
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>4.85</v>
       </c>
     </row>
@@ -1932,7 +1940,7 @@
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>2.79</v>
       </c>
     </row>
@@ -1940,7 +1948,7 @@
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1.56</v>
       </c>
     </row>
@@ -1948,7 +1956,7 @@
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>3.83</v>
       </c>
     </row>
@@ -1956,7 +1964,7 @@
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>6.13</v>
       </c>
     </row>
@@ -1964,7 +1972,7 @@
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>3.93</v>
       </c>
     </row>
@@ -1972,7 +1980,7 @@
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>12.42</v>
       </c>
     </row>
@@ -1980,7 +1988,7 @@
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>2.17</v>
       </c>
     </row>
@@ -1988,7 +1996,7 @@
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>3.39</v>
       </c>
     </row>
@@ -1996,7 +2004,7 @@
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>1.21</v>
       </c>
     </row>
@@ -2004,7 +2012,7 @@
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>2.89</v>
       </c>
     </row>
@@ -2012,7 +2020,7 @@
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>2.83</v>
       </c>
     </row>
@@ -2020,7 +2028,7 @@
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>2.21</v>
       </c>
     </row>
@@ -2028,7 +2036,7 @@
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>0.72</v>
       </c>
     </row>
@@ -2036,7 +2044,7 @@
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>3.42</v>
       </c>
     </row>
@@ -2044,7 +2052,7 @@
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>5.99</v>
       </c>
     </row>
@@ -2052,7 +2060,7 @@
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>8.5</v>
       </c>
     </row>
@@ -2060,7 +2068,7 @@
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>1.47</v>
       </c>
     </row>
@@ -2068,7 +2076,7 @@
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>1.04</v>
       </c>
     </row>
@@ -2076,7 +2084,7 @@
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>1.59</v>
       </c>
     </row>
@@ -2084,7 +2092,7 @@
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>2.49</v>
       </c>
     </row>
@@ -2092,7 +2100,7 @@
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>27.16</v>
       </c>
     </row>
@@ -2100,7 +2108,7 @@
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>1.55</v>
       </c>
     </row>
@@ -2108,7 +2116,7 @@
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>3.06</v>
       </c>
     </row>
@@ -2116,7 +2124,7 @@
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>1.93</v>
       </c>
     </row>
@@ -2124,7 +2132,7 @@
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>3.06</v>
       </c>
     </row>
@@ -2132,7 +2140,7 @@
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>7.97</v>
       </c>
     </row>
@@ -2140,7 +2148,7 @@
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>3.21</v>
       </c>
     </row>
@@ -2148,7 +2156,7 @@
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>2.38</v>
       </c>
     </row>
@@ -2156,7 +2164,7 @@
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>4.31</v>
       </c>
     </row>
@@ -2164,7 +2172,7 @@
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>3.28</v>
       </c>
     </row>
@@ -2172,7 +2180,7 @@
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>3.37</v>
       </c>
     </row>
@@ -2180,7 +2188,7 @@
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>14.35</v>
       </c>
     </row>
@@ -2188,7 +2196,7 @@
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>9.039999999999999</v>
       </c>
     </row>
@@ -2196,7 +2204,7 @@
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>1.76</v>
       </c>
     </row>
@@ -2204,7 +2212,7 @@
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>2.3</v>
       </c>
     </row>
@@ -2212,7 +2220,7 @@
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>1.42</v>
       </c>
     </row>
@@ -2220,7 +2228,7 @@
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>7.71</v>
       </c>
     </row>
@@ -2228,7 +2236,7 @@
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -2236,7 +2244,7 @@
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>4.47</v>
       </c>
     </row>
@@ -2244,7 +2252,7 @@
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>5.61</v>
       </c>
     </row>
@@ -2252,7 +2260,7 @@
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>4.69</v>
       </c>
     </row>
@@ -2260,7 +2268,7 @@
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -2268,7 +2276,7 @@
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -2276,7 +2284,7 @@
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>1.93</v>
       </c>
     </row>
@@ -2284,7 +2292,7 @@
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>3.08</v>
       </c>
     </row>
@@ -2292,7 +2300,7 @@
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>1.36</v>
       </c>
     </row>
@@ -2300,7 +2308,7 @@
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>2.37</v>
       </c>
     </row>
@@ -2308,7 +2316,7 @@
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>1.48</v>
       </c>
     </row>
@@ -2316,7 +2324,7 @@
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>3.98</v>
       </c>
     </row>
@@ -2324,7 +2332,7 @@
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>10.21</v>
       </c>
     </row>
@@ -2332,7 +2340,7 @@
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>4.89</v>
       </c>
     </row>
@@ -2340,7 +2348,7 @@
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>2.25</v>
       </c>
     </row>
@@ -2348,7 +2356,7 @@
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>0.79</v>
       </c>
     </row>
@@ -2356,7 +2364,7 @@
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>3.95</v>
       </c>
     </row>
@@ -2364,7 +2372,7 @@
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>8.710000000000001</v>
       </c>
     </row>
@@ -2372,7 +2380,7 @@
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>4.91</v>
       </c>
     </row>
@@ -2380,7 +2388,7 @@
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>3.17</v>
       </c>
     </row>
@@ -2388,7 +2396,7 @@
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>3.83</v>
       </c>
     </row>
@@ -2396,7 +2404,7 @@
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>1.57</v>
       </c>
     </row>
@@ -2404,7 +2412,7 @@
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>3.7</v>
       </c>
     </row>
@@ -2412,7 +2420,7 @@
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>4.31</v>
       </c>
     </row>
@@ -2420,7 +2428,7 @@
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>0.38</v>
       </c>
     </row>
@@ -2428,7 +2436,7 @@
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>4.5</v>
       </c>
     </row>
@@ -2436,7 +2444,7 @@
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2444,7 +2452,7 @@
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>2.74</v>
       </c>
     </row>
@@ -2452,7 +2460,7 @@
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>8.06</v>
       </c>
     </row>
@@ -2460,7 +2468,7 @@
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>4.65</v>
       </c>
     </row>
@@ -2468,7 +2476,7 @@
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>3.59</v>
       </c>
     </row>
@@ -2476,7 +2484,7 @@
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>2.18</v>
       </c>
     </row>
@@ -2484,7 +2492,7 @@
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>2.66</v>
       </c>
     </row>
@@ -2492,7 +2500,7 @@
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>3.41</v>
       </c>
     </row>
@@ -2500,7 +2508,7 @@
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
         <v>3.93</v>
       </c>
     </row>
@@ -2508,7 +2516,7 @@
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
         <v>0.03</v>
       </c>
     </row>
@@ -2516,7 +2524,7 @@
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>0.04</v>
       </c>
     </row>
@@ -2524,7 +2532,7 @@
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>4.01</v>
       </c>
     </row>
@@ -2532,7 +2540,7 @@
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
         <v>3.73</v>
       </c>
     </row>
@@ -2540,7 +2548,7 @@
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
         <v>3.03</v>
       </c>
     </row>
@@ -2548,7 +2556,7 @@
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>4.95</v>
       </c>
     </row>
@@ -2556,7 +2564,7 @@
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>3.12</v>
       </c>
     </row>
@@ -2564,7 +2572,7 @@
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>5.03</v>
       </c>
     </row>
@@ -2572,7 +2580,7 @@
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>3.05</v>
       </c>
     </row>
@@ -2580,7 +2588,7 @@
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
         <v>5.36</v>
       </c>
     </row>
@@ -2588,7 +2596,7 @@
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
         <v>1.736</v>
       </c>
     </row>
@@ -2596,7 +2604,7 @@
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="2">
         <v>2.55</v>
       </c>
     </row>
@@ -2604,7 +2612,7 @@
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="2">
         <v>2.59</v>
       </c>
     </row>
@@ -2612,7 +2620,7 @@
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>1.02</v>
       </c>
     </row>
@@ -2620,7 +2628,7 @@
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
         <v>3.78</v>
       </c>
     </row>
@@ -2628,7 +2636,7 @@
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="2">
         <v>5.24</v>
       </c>
     </row>
@@ -2636,7 +2644,7 @@
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
         <v>7.62</v>
       </c>
     </row>
@@ -2644,7 +2652,7 @@
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="2">
         <v>1.92</v>
       </c>
     </row>
@@ -2652,7 +2660,7 @@
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
         <v>3.09</v>
       </c>
     </row>
@@ -2660,7 +2668,7 @@
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>1.54</v>
       </c>
     </row>
@@ -2668,7 +2676,7 @@
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -2676,7 +2684,7 @@
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="2">
         <v>1.67</v>
       </c>
     </row>
@@ -2684,7 +2692,7 @@
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="2">
         <v>1.12</v>
       </c>
     </row>
@@ -2692,7 +2700,7 @@
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="2">
         <v>0.98</v>
       </c>
     </row>
@@ -2700,7 +2708,7 @@
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
         <v>6.82</v>
       </c>
     </row>
@@ -2708,7 +2716,7 @@
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
         <v>4.13</v>
       </c>
     </row>
@@ -2716,7 +2724,7 @@
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
         <v>2.38</v>
       </c>
     </row>
@@ -2724,7 +2732,7 @@
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="2">
         <v>3.03</v>
       </c>
     </row>
@@ -2732,7 +2740,7 @@
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
         <v>2.89</v>
       </c>
     </row>
@@ -2740,7 +2748,7 @@
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="2">
         <v>1.42</v>
       </c>
     </row>
@@ -2748,7 +2756,7 @@
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="2">
         <v>3.24</v>
       </c>
     </row>
@@ -2756,7 +2764,7 @@
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
         <v>3.79</v>
       </c>
     </row>
@@ -2764,7 +2772,7 @@
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="2">
         <v>2.3</v>
       </c>
     </row>
@@ -2772,7 +2780,7 @@
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>2.42</v>
       </c>
     </row>
@@ -2780,7 +2788,7 @@
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
         <v>3.97</v>
       </c>
     </row>
@@ -2788,7 +2796,7 @@
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
         <v>0.13</v>
       </c>
     </row>
@@ -2796,7 +2804,7 @@
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
         <v>7.56</v>
       </c>
     </row>
@@ -2804,7 +2812,7 @@
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="2">
         <v>7.95</v>
       </c>
     </row>
@@ -2812,7 +2820,7 @@
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
         <v>2.9</v>
       </c>
     </row>
@@ -2820,7 +2828,7 @@
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
         <v>1.82</v>
       </c>
     </row>
@@ -2828,7 +2836,7 @@
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
         <v>1.75</v>
       </c>
     </row>
@@ -2836,7 +2844,7 @@
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="2">
         <v>4.64</v>
       </c>
     </row>
@@ -2844,7 +2852,7 @@
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
         <v>3.4</v>
       </c>
     </row>
@@ -2852,7 +2860,7 @@
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -2860,7 +2868,7 @@
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
         <v>1.89</v>
       </c>
     </row>
@@ -2868,7 +2876,7 @@
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
         <v>9.130000000000001</v>
       </c>
     </row>
@@ -2876,7 +2884,7 @@
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="2">
         <v>11.59</v>
       </c>
     </row>
@@ -2884,7 +2892,7 @@
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
         <v>4.13</v>
       </c>
     </row>
@@ -2892,7 +2900,7 @@
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
         <v>3.24</v>
       </c>
     </row>
@@ -2900,7 +2908,7 @@
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
         <v>0.73</v>
       </c>
     </row>
@@ -2908,7 +2916,7 @@
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
         <v>4.3</v>
       </c>
     </row>
@@ -2916,7 +2924,7 @@
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="2">
         <v>1.46</v>
       </c>
     </row>
@@ -2924,7 +2932,7 @@
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
         <v>2.01</v>
       </c>
     </row>
@@ -2932,7 +2940,7 @@
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
         <v>3.78</v>
       </c>
     </row>
@@ -2940,7 +2948,7 @@
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
         <v>7.63</v>
       </c>
     </row>
@@ -2948,7 +2956,7 @@
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
         <v>1.81</v>
       </c>
     </row>
@@ -2956,7 +2964,7 @@
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="2">
         <v>3.9</v>
       </c>
     </row>
@@ -2964,7 +2972,7 @@
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="2">
         <v>0.06</v>
       </c>
     </row>
@@ -2972,7 +2980,7 @@
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="2">
         <v>5.4</v>
       </c>
     </row>
@@ -2980,7 +2988,7 @@
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="2">
         <v>6.54</v>
       </c>
     </row>
@@ -2988,7 +2996,7 @@
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="2">
         <v>2.66</v>
       </c>
     </row>
@@ -2996,7 +3004,7 @@
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
         <v>1.73</v>
       </c>
     </row>
@@ -3004,7 +3012,7 @@
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="2">
         <v>2.28</v>
       </c>
     </row>
@@ -3012,7 +3020,7 @@
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
         <v>5</v>
       </c>
     </row>
@@ -3020,7 +3028,7 @@
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="2">
         <v>5.53</v>
       </c>
     </row>
@@ -3028,7 +3036,7 @@
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="2">
         <v>0.34</v>
       </c>
     </row>
@@ -3036,7 +3044,7 @@
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="2">
         <v>7.44</v>
       </c>
     </row>
@@ -3044,7 +3052,7 @@
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="2">
         <v>11.97</v>
       </c>
     </row>
@@ -3052,7 +3060,7 @@
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="2">
         <v>3.63</v>
       </c>
     </row>
@@ -3060,7 +3068,7 @@
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
         <v>5.09</v>
       </c>
     </row>
@@ -3068,7 +3076,7 @@
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -3076,7 +3084,7 @@
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="2">
         <v>2.39</v>
       </c>
     </row>
@@ -3084,7 +3092,7 @@
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="2">
         <v>3.18</v>
       </c>
     </row>
@@ -3092,7 +3100,7 @@
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -3100,7 +3108,7 @@
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="2">
         <v>1.14</v>
       </c>
     </row>
@@ -3108,7 +3116,7 @@
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="2">
         <v>1.67</v>
       </c>
     </row>
@@ -3116,7 +3124,7 @@
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="2">
         <v>11.35</v>
       </c>
     </row>
@@ -3124,7 +3132,7 @@
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
         <v>7.33</v>
       </c>
     </row>
@@ -3132,7 +3140,7 @@
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="2">
         <v>2.27</v>
       </c>
     </row>
@@ -3140,7 +3148,7 @@
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -3148,7 +3156,7 @@
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="2">
         <v>2.51</v>
       </c>
     </row>
@@ -3156,7 +3164,7 @@
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="2">
         <v>5.34</v>
       </c>
     </row>
@@ -3164,7 +3172,7 @@
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="2">
         <v>3.77</v>
       </c>
     </row>
@@ -3172,7 +3180,7 @@
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="2">
         <v>0.89</v>
       </c>
     </row>
@@ -3180,7 +3188,7 @@
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="2">
         <v>3.51</v>
       </c>
     </row>
@@ -3188,7 +3196,7 @@
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="2">
         <v>4.07</v>
       </c>
     </row>
@@ -3196,7 +3204,7 @@
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
         <v>2.2</v>
       </c>
     </row>
@@ -3204,7 +3212,7 @@
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="2">
         <v>1.62</v>
       </c>
     </row>
@@ -3212,7 +3220,7 @@
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="2">
         <v>3.27</v>
       </c>
     </row>
@@ -3220,7 +3228,7 @@
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="2">
         <v>2.93</v>
       </c>
     </row>
@@ -3228,7 +3236,7 @@
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="2">
         <v>4.08</v>
       </c>
     </row>
@@ -3236,7 +3244,7 @@
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="2">
         <v>4.56</v>
       </c>
     </row>
@@ -3244,7 +3252,7 @@
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="2">
         <v>3.12</v>
       </c>
     </row>
@@ -3252,7 +3260,7 @@
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="2">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -3260,7 +3268,7 @@
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="2">
         <v>3.12</v>
       </c>
     </row>
@@ -3268,7 +3276,7 @@
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="2">
         <v>7.78</v>
       </c>
     </row>
@@ -3276,7 +3284,7 @@
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="2">
         <v>1.91</v>
       </c>
     </row>
@@ -3284,7 +3292,7 @@
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="2">
         <v>2.23</v>
       </c>
     </row>
@@ -3292,7 +3300,7 @@
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="2">
         <v>11.41</v>
       </c>
     </row>
@@ -3300,7 +3308,7 @@
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="2">
         <v>3.46</v>
       </c>
     </row>
@@ -3308,7 +3316,7 @@
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="2">
         <v>2.14</v>
       </c>
     </row>
@@ -3316,7 +3324,7 @@
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="2">
         <v>3.84</v>
       </c>
     </row>
@@ -3324,7 +3332,7 @@
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="2">
         <v>0.54</v>
       </c>
     </row>
@@ -3332,7 +3340,7 @@
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="2">
         <v>1.65</v>
       </c>
     </row>
@@ -3340,7 +3348,7 @@
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="2">
         <v>1.23</v>
       </c>
     </row>
@@ -3348,7 +3356,7 @@
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="2">
         <v>8.029999999999999</v>
       </c>
     </row>
@@ -3356,7 +3364,7 @@
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="2">
         <v>3.93</v>
       </c>
     </row>
@@ -3364,7 +3372,7 @@
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="2">
         <v>3.11</v>
       </c>
     </row>
@@ -3372,7 +3380,7 @@
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="2">
         <v>1.97</v>
       </c>
     </row>
@@ -3380,7 +3388,7 @@
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="2">
         <v>10.46</v>
       </c>
     </row>
@@ -3388,7 +3396,7 @@
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="2">
         <v>2.6</v>
       </c>
     </row>
@@ -3396,7 +3404,7 @@
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="2">
         <v>2.4</v>
       </c>
     </row>
@@ -3404,7 +3412,7 @@
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="2">
         <v>1.46</v>
       </c>
     </row>
@@ -3412,7 +3420,7 @@
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="2">
         <v>4.85</v>
       </c>
     </row>
@@ -3420,7 +3428,7 @@
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="2">
         <v>1.99</v>
       </c>
     </row>
@@ -3428,7 +3436,7 @@
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="2">
         <v>5.51</v>
       </c>
     </row>
@@ -3436,7 +3444,7 @@
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="2">
         <v>4.69</v>
       </c>
     </row>
@@ -3444,7 +3452,7 @@
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="2">
         <v>1.29</v>
       </c>
     </row>
@@ -3452,7 +3460,7 @@
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="2">
         <v>5.48</v>
       </c>
     </row>
@@ -3460,7 +3468,7 @@
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="2">
         <v>7.3</v>
       </c>
     </row>
@@ -3468,7 +3476,7 @@
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="2">
         <v>3.55</v>
       </c>
     </row>
@@ -3476,7 +3484,7 @@
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="2">
         <v>3.37</v>
       </c>
     </row>
@@ -3484,7 +3492,7 @@
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="2">
         <v>2.73</v>
       </c>
     </row>
@@ -3492,7 +3500,7 @@
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
         <v>2.69</v>
       </c>
     </row>
@@ -3500,7 +3508,7 @@
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="2">
         <v>7.63</v>
       </c>
     </row>
@@ -3508,7 +3516,7 @@
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="2">
         <v>2.56</v>
       </c>
     </row>
@@ -3516,7 +3524,7 @@
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="2">
         <v>5.28</v>
       </c>
     </row>
@@ -3524,7 +3532,7 @@
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
         <v>2.69</v>
       </c>
     </row>
@@ -3532,7 +3540,7 @@
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="2">
         <v>8.84</v>
       </c>
     </row>
@@ -3540,7 +3548,7 @@
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="2">
         <v>4.12</v>
       </c>
     </row>
@@ -3548,7 +3556,7 @@
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="2">
         <v>4.48</v>
       </c>
     </row>
@@ -3556,7 +3564,7 @@
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="2">
         <v>2.66</v>
       </c>
     </row>
@@ -3564,7 +3572,7 @@
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="2">
         <v>7.47</v>
       </c>
     </row>
@@ -3572,7 +3580,7 @@
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="2">
         <v>11.71</v>
       </c>
     </row>
@@ -3580,7 +3588,7 @@
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="2">
         <v>2.87</v>
       </c>
     </row>
@@ -3588,7 +3596,7 @@
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="2">
         <v>5.06</v>
       </c>
     </row>
@@ -3596,7 +3604,7 @@
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="2">
         <v>2.49</v>
       </c>
     </row>
@@ -3604,7 +3612,7 @@
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="2">
         <v>2.74</v>
       </c>
     </row>
@@ -3612,7 +3620,7 @@
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="2">
         <v>3.36</v>
       </c>
     </row>
@@ -3620,7 +3628,7 @@
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="2">
         <v>2.45</v>
       </c>
     </row>
@@ -3628,7 +3636,7 @@
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="2">
         <v>5.67</v>
       </c>
     </row>
@@ -3636,7 +3644,7 @@
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="2">
         <v>1.02</v>
       </c>
     </row>
@@ -3644,7 +3652,7 @@
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="2">
         <v>4.44</v>
       </c>
     </row>
@@ -3652,7 +3660,7 @@
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="2">
         <v>6.59</v>
       </c>
     </row>
@@ -3660,7 +3668,7 @@
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="2">
         <v>1.01</v>
       </c>
     </row>
@@ -3668,7 +3676,7 @@
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="2">
         <v>5.85</v>
       </c>
     </row>
@@ -3676,7 +3684,7 @@
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="2">
         <v>6.44</v>
       </c>
     </row>
@@ -3684,7 +3692,7 @@
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="2">
         <v>1.87</v>
       </c>
     </row>
@@ -3692,7 +3700,7 @@
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="2">
         <v>3.34</v>
       </c>
     </row>
@@ -3700,7 +3708,7 @@
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="2">
         <v>2.22</v>
       </c>
     </row>
@@ -3708,7 +3716,7 @@
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -3716,7 +3724,7 @@
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="2">
         <v>1.37</v>
       </c>
     </row>
@@ -3724,7 +3732,7 @@
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="2">
         <v>0.41</v>
       </c>
     </row>
@@ -3732,7 +3740,7 @@
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="2">
         <v>1.04</v>
       </c>
     </row>
@@ -3740,7 +3748,7 @@
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -3748,7 +3756,7 @@
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="2">
         <v>4.27</v>
       </c>
     </row>
@@ -3756,7 +3764,7 @@
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="2">
         <v>7.46</v>
       </c>
     </row>
@@ -3764,7 +3772,7 @@
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="2">
         <v>0.79</v>
       </c>
     </row>
@@ -3772,7 +3780,7 @@
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="2">
         <v>1.72</v>
       </c>
     </row>
@@ -3780,7 +3788,7 @@
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="2">
         <v>0.84</v>
       </c>
     </row>
@@ -3788,7 +3796,7 @@
       <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="2">
         <v>1.65</v>
       </c>
     </row>
@@ -3796,7 +3804,7 @@
       <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="2">
         <v>3.83</v>
       </c>
     </row>
@@ -3804,7 +3812,7 @@
       <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="2">
         <v>3.07</v>
       </c>
     </row>
@@ -3812,7 +3820,7 @@
       <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="3">
         <v>46.3</v>
       </c>
     </row>
@@ -3820,7 +3828,7 @@
       <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="2">
         <v>1.99</v>
       </c>
     </row>
@@ -3828,7 +3836,7 @@
       <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3836,7 +3844,7 @@
       <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="2">
         <v>4.31</v>
       </c>
     </row>
@@ -3844,7 +3852,7 @@
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="2">
         <v>1.44</v>
       </c>
     </row>
@@ -3852,7 +3860,7 @@
       <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="2">
         <v>3.7</v>
       </c>
     </row>
@@ -3860,7 +3868,7 @@
       <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="2">
         <v>2.17</v>
       </c>
     </row>
@@ -3868,7 +3876,7 @@
       <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="2">
         <v>6.98</v>
       </c>
     </row>
@@ -3876,7 +3884,7 @@
       <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="2">
         <v>1.27</v>
       </c>
     </row>
@@ -3884,7 +3892,7 @@
       <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="2">
         <v>1.4</v>
       </c>
     </row>
@@ -3892,7 +3900,7 @@
       <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="2">
         <v>4.76</v>
       </c>
     </row>
@@ -3900,7 +3908,7 @@
       <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="2">
         <v>7.44</v>
       </c>
     </row>
@@ -3908,7 +3916,7 @@
       <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="2">
         <v>1.13</v>
       </c>
     </row>
@@ -3916,7 +3924,7 @@
       <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="2">
         <v>3.59</v>
       </c>
     </row>
@@ -3924,7 +3932,7 @@
       <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="2">
         <v>15.2</v>
       </c>
     </row>
@@ -3932,7 +3940,7 @@
       <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="2">
         <v>2.64</v>
       </c>
     </row>
@@ -3940,7 +3948,7 @@
       <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="2">
         <v>8.4</v>
       </c>
     </row>
@@ -3948,7 +3956,7 @@
       <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="2">
         <v>1.77</v>
       </c>
     </row>
@@ -3956,7 +3964,7 @@
       <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="2">
         <v>1.35</v>
       </c>
     </row>
@@ -3964,7 +3972,7 @@
       <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="2">
         <v>5.79</v>
       </c>
     </row>
@@ -3972,7 +3980,7 @@
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="2">
         <v>4.73</v>
       </c>
     </row>
@@ -3980,7 +3988,7 @@
       <c r="A302" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="2">
         <v>4.14</v>
       </c>
     </row>
@@ -3988,7 +3996,7 @@
       <c r="A303" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="2">
         <v>3.45</v>
       </c>
     </row>
@@ -3996,7 +4004,7 @@
       <c r="A304" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="2">
         <v>3.46</v>
       </c>
     </row>
@@ -4004,7 +4012,7 @@
       <c r="A305" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="2">
         <v>2.28</v>
       </c>
     </row>
@@ -4012,7 +4020,7 @@
       <c r="A306" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="2">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -4020,7 +4028,7 @@
       <c r="A307" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="2">
         <v>8.550000000000001</v>
       </c>
     </row>
@@ -4028,7 +4036,7 @@
       <c r="A308" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="2">
         <v>5.98</v>
       </c>
     </row>
@@ -4036,7 +4044,7 @@
       <c r="A309" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="2">
         <v>6.47</v>
       </c>
     </row>
@@ -4044,7 +4052,7 @@
       <c r="A310" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="2">
         <v>3.93</v>
       </c>
     </row>
@@ -4052,7 +4060,7 @@
       <c r="A311" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="2">
         <v>3.81</v>
       </c>
     </row>
@@ -4060,7 +4068,7 @@
       <c r="A312" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="2">
         <v>1.54</v>
       </c>
     </row>
@@ -4068,7 +4076,7 @@
       <c r="A313" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="2">
         <v>2.75</v>
       </c>
     </row>
@@ -4076,7 +4084,7 @@
       <c r="A314" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="2">
         <v>3.79</v>
       </c>
     </row>
@@ -4084,7 +4092,7 @@
       <c r="A315" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="2">
         <v>0.96</v>
       </c>
     </row>
@@ -4092,7 +4100,7 @@
       <c r="A316" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="2">
         <v>1.61</v>
       </c>
     </row>
@@ -4100,7 +4108,7 @@
       <c r="A317" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="2">
         <v>1.22</v>
       </c>
     </row>
@@ -4108,7 +4116,7 @@
       <c r="A318" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="2">
         <v>8.949999999999999</v>
       </c>
     </row>
@@ -4116,7 +4124,7 @@
       <c r="A319" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="2">
         <v>4.59</v>
       </c>
     </row>
@@ -4124,7 +4132,7 @@
       <c r="A320" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="2">
         <v>5.42</v>
       </c>
     </row>
@@ -4132,7 +4140,7 @@
       <c r="A321" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="2">
         <v>0.59</v>
       </c>
     </row>
@@ -4140,7 +4148,7 @@
       <c r="A322" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="2">
         <v>3.86</v>
       </c>
     </row>
@@ -4148,7 +4156,7 @@
       <c r="A323" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="2">
         <v>2.19</v>
       </c>
     </row>
@@ -4156,7 +4164,7 @@
       <c r="A324" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="2">
         <v>4.52</v>
       </c>
     </row>
@@ -4164,7 +4172,7 @@
       <c r="A325" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -4172,7 +4180,7 @@
       <c r="A326" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="2">
         <v>3.84</v>
       </c>
     </row>
@@ -4180,7 +4188,7 @@
       <c r="A327" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="2">
         <v>4.72</v>
       </c>
     </row>
@@ -4188,7 +4196,7 @@
       <c r="A328" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="2">
         <v>3.26</v>
       </c>
     </row>
@@ -4196,7 +4204,7 @@
       <c r="A329" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="2">
         <v>4.65</v>
       </c>
     </row>
@@ -4204,7 +4212,7 @@
       <c r="A330" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="2">
         <v>4.66</v>
       </c>
     </row>
@@ -4212,7 +4220,7 @@
       <c r="A331" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="2">
         <v>2.44</v>
       </c>
     </row>
@@ -4220,7 +4228,7 @@
       <c r="A332" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="2">
         <v>2.63</v>
       </c>
     </row>
@@ -4228,7 +4236,7 @@
       <c r="A333" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -4236,7 +4244,7 @@
       <c r="A334" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="2">
         <v>1.36</v>
       </c>
     </row>
@@ -4244,7 +4252,7 @@
       <c r="A335" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="2">
         <v>1.29</v>
       </c>
     </row>
@@ -4252,7 +4260,7 @@
       <c r="A336" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="2">
         <v>1.59</v>
       </c>
     </row>
@@ -4260,7 +4268,7 @@
       <c r="A337" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="2">
         <v>1.19</v>
       </c>
     </row>
@@ -4268,7 +4276,7 @@
       <c r="A338" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -4276,7 +4284,7 @@
       <c r="A339" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="2">
         <v>2.36</v>
       </c>
     </row>
@@ -4284,7 +4292,7 @@
       <c r="A340" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="2">
         <v>1.91</v>
       </c>
     </row>
@@ -4292,7 +4300,7 @@
       <c r="A341" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="2">
         <v>4.34</v>
       </c>
     </row>
@@ -4300,7 +4308,7 @@
       <c r="A342" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="2">
         <v>3.1</v>
       </c>
     </row>
@@ -4308,7 +4316,7 @@
       <c r="A343" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="2">
         <v>1.42</v>
       </c>
     </row>
@@ -4316,7 +4324,7 @@
       <c r="A344" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="2">
         <v>3</v>
       </c>
     </row>
@@ -4324,7 +4332,7 @@
       <c r="A345" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="2">
         <v>4.15</v>
       </c>
     </row>
@@ -4332,7 +4340,7 @@
       <c r="A346" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="2">
         <v>4.76</v>
       </c>
     </row>
@@ -4340,7 +4348,7 @@
       <c r="A347" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -4348,7 +4356,7 @@
       <c r="A348" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="2">
         <v>10.82</v>
       </c>
     </row>
@@ -4356,7 +4364,7 @@
       <c r="A349" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="2">
         <v>2.69</v>
       </c>
     </row>
@@ -4364,7 +4372,7 @@
       <c r="A350" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="2">
         <v>6.56</v>
       </c>
     </row>
@@ -4372,7 +4380,7 @@
       <c r="A351" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="2">
         <v>1.73</v>
       </c>
     </row>
@@ -4380,7 +4388,7 @@
       <c r="A352" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -4388,7 +4396,7 @@
       <c r="A353" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="2">
         <v>0.98</v>
       </c>
     </row>
@@ -4396,7 +4404,7 @@
       <c r="A354" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="2">
         <v>3.05</v>
       </c>
     </row>
@@ -4404,7 +4412,7 @@
       <c r="A355" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="2">
         <v>0.6</v>
       </c>
     </row>
@@ -4412,7 +4420,7 @@
       <c r="A356" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="2">
         <v>5.52</v>
       </c>
     </row>
@@ -4420,7 +4428,7 @@
       <c r="A357" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="2">
         <v>5.78</v>
       </c>
     </row>
@@ -4428,7 +4436,7 @@
       <c r="A358" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="2">
         <v>1.62</v>
       </c>
     </row>
@@ -4436,7 +4444,7 @@
       <c r="A359" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="2">
         <v>5.77</v>
       </c>
     </row>
@@ -4444,7 +4452,7 @@
       <c r="A360" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="2">
         <v>3.31</v>
       </c>
     </row>
@@ -4452,7 +4460,7 @@
       <c r="A361" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="2">
         <v>1.92</v>
       </c>
     </row>
@@ -4460,7 +4468,7 @@
       <c r="A362" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="2">
         <v>6.92</v>
       </c>
     </row>
@@ -4468,7 +4476,7 @@
       <c r="A363" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="2">
         <v>3.88</v>
       </c>
     </row>
@@ -4476,7 +4484,7 @@
       <c r="A364" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="2">
         <v>5.53</v>
       </c>
     </row>
@@ -4484,7 +4492,7 @@
       <c r="A365" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="2">
         <v>6.88</v>
       </c>
     </row>
@@ -4492,7 +4500,7 @@
       <c r="A366" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="2">
         <v>1.56</v>
       </c>
     </row>
@@ -4500,7 +4508,7 @@
       <c r="A367" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="2">
         <v>4.18</v>
       </c>
     </row>
@@ -4508,7 +4516,7 @@
       <c r="A368" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="2">
         <v>2.41</v>
       </c>
     </row>
@@ -4516,7 +4524,7 @@
       <c r="A369" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="2">
         <v>2.8</v>
       </c>
     </row>
@@ -4524,7 +4532,7 @@
       <c r="A370" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="2">
         <v>1.62</v>
       </c>
     </row>
@@ -4532,7 +4540,7 @@
       <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="2">
         <v>2.42</v>
       </c>
     </row>
@@ -4540,7 +4548,7 @@
       <c r="A372" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="2">
         <v>6.88</v>
       </c>
     </row>
@@ -4548,7 +4556,7 @@
       <c r="A373" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="2">
         <v>2.61</v>
       </c>
     </row>
@@ -4556,7 +4564,7 @@
       <c r="A374" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="2">
         <v>4.17</v>
       </c>
     </row>
@@ -4564,7 +4572,7 @@
       <c r="A375" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="2">
         <v>1.57</v>
       </c>
     </row>
@@ -4572,7 +4580,7 @@
       <c r="A376" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="2">
         <v>8.300000000000001</v>
       </c>
     </row>
@@ -4580,7 +4588,7 @@
       <c r="A377" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="2">
         <v>2.8</v>
       </c>
     </row>
@@ -4588,7 +4596,7 @@
       <c r="A378" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="2">
         <v>2.94</v>
       </c>
     </row>
@@ -4596,7 +4604,7 @@
       <c r="A379" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="2">
         <v>4.9</v>
       </c>
     </row>
@@ -4604,7 +4612,7 @@
       <c r="A380" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -4612,7 +4620,7 @@
       <c r="A381" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -4620,7 +4628,7 @@
       <c r="A382" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="2">
         <v>4.22</v>
       </c>
     </row>
@@ -4628,7 +4636,7 @@
       <c r="A383" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="2">
         <v>7.25</v>
       </c>
     </row>
@@ -4636,7 +4644,7 @@
       <c r="A384" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="2">
         <v>5.79</v>
       </c>
     </row>
@@ -4644,7 +4652,7 @@
       <c r="A385" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="2">
         <v>2.03</v>
       </c>
     </row>
@@ -4652,7 +4660,7 @@
       <c r="A386" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="2">
         <v>0.71</v>
       </c>
     </row>
@@ -4660,7 +4668,7 @@
       <c r="A387" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="2">
         <v>2.37</v>
       </c>
     </row>
@@ -4668,7 +4676,7 @@
       <c r="A388" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="2">
         <v>7.6</v>
       </c>
     </row>
@@ -4676,7 +4684,7 @@
       <c r="A389" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="2">
         <v>2.28</v>
       </c>
     </row>
@@ -4684,7 +4692,7 @@
       <c r="A390" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="2">
         <v>0.82</v>
       </c>
     </row>
@@ -4692,7 +4700,7 @@
       <c r="A391" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="2">
         <v>1.84</v>
       </c>
     </row>
@@ -4700,7 +4708,7 @@
       <c r="A392" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="2">
         <v>7.61</v>
       </c>
     </row>
@@ -4708,7 +4716,7 @@
       <c r="A393" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="2">
         <v>2.37</v>
       </c>
     </row>
@@ -4716,7 +4724,7 @@
       <c r="A394" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="2">
         <v>4.26</v>
       </c>
     </row>
@@ -4724,7 +4732,7 @@
       <c r="A395" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="2">
         <v>1.68</v>
       </c>
     </row>
@@ -4732,7 +4740,7 @@
       <c r="A396" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="2">
         <v>1.16</v>
       </c>
     </row>
